--- a/resources/views/supplier-expenses/supplier-expenses.xlsx
+++ b/resources/views/supplier-expenses/supplier-expenses.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -30,25 +30,31 @@
     <t>Data de Emissão</t>
   </si>
   <si>
+    <t>Valor</t>
+  </si>
+  <si>
     <t>Tipo de Pagamento</t>
   </si>
   <si>
     <t>Descrição</t>
   </si>
   <si>
+    <t>Observação</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
+    <t>N° de Comprovante</t>
+  </si>
+  <si>
+    <t>Comprovante (link)</t>
+  </si>
+  <si>
     <t>Fornecedor</t>
   </si>
   <si>
     <t>Tipo de Comprovante</t>
-  </si>
-  <si>
-    <t>Observação</t>
-  </si>
-  <si>
-    <t>Comprovante (link)</t>
   </si>
   <si>
     <t>Importado</t>
@@ -118,12 +124,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,60 +412,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="4" width="44.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1">
+    <row r="1" spans="1:13" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
